--- a/src/private/templates/auditor_report.xlsx
+++ b/src/private/templates/auditor_report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Oyu Tolgoi Supplier Qualification Audit Report</t>
   </si>
   <si>
-    <t>Cummins Mongolia Investment</t>
-  </si>
-  <si>
     <t>Audit date:</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>Share of OT induced employment (hired due to business with OT) in total employment (SOTIE)</t>
+  </si>
+  <si>
+    <t>Cake</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +184,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -376,6 +382,141 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -385,155 +526,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:I71"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="185" zoomScaleNormal="185" zoomScalePageLayoutView="185" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56:J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1051,39 +1057,39 @@
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="2"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1"/>
     </row>
@@ -1201,11 +1207,11 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
-      <c r="C26" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
+      <c r="C26" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="14"/>
       <c r="G26" s="2"/>
       <c r="H26" s="7"/>
@@ -1226,7 +1232,7 @@
     <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1514,12 +1520,12 @@
     <row r="54" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
+      <c r="D54" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -1527,84 +1533,84 @@
     <row r="55" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="55"/>
+      <c r="D56" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="52"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="51"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="55" t="s">
+      <c r="H56" s="57"/>
+      <c r="I56" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="67"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B57" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="56"/>
-      <c r="I56" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B57" s="21" t="s">
+      <c r="C57" s="23"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="40"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="32"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="35"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B59" s="26"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="38"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B60" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="38" t="s">
+      <c r="C60" s="29"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H57" s="39"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="31"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="34"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="37"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B60" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="H60" s="48"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="46"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="47"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B61" s="4"/>
@@ -1640,137 +1646,146 @@
       <c r="J63" s="11"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="61"/>
-    </row>
-    <row r="65" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="62" t="s">
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="16"/>
+    </row>
+    <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="64"/>
-    </row>
-    <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="62" t="s">
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="16"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B67" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="64"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B67" s="59" t="s">
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="15"/>
+    </row>
+    <row r="68" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="61"/>
-    </row>
-    <row r="68" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="62" t="s">
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="16"/>
+    </row>
+    <row r="69" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="64"/>
-    </row>
-    <row r="69" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="62" t="s">
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="16"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B70" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="64"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B70" s="59" t="s">
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="15"/>
+    </row>
+    <row r="71" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="61"/>
-    </row>
-    <row r="71" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="67"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="17"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.15">
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D54:G55"/>
+    <mergeCell ref="F72:J73"/>
+    <mergeCell ref="B72:E73"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="B69:I69"/>
     <mergeCell ref="B70:I70"/>
     <mergeCell ref="B71:I71"/>
     <mergeCell ref="C13:I15"/>
@@ -1787,15 +1802,6 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="C26:E26"/>
-    <mergeCell ref="D54:G55"/>
-    <mergeCell ref="F72:J73"/>
-    <mergeCell ref="B72:E73"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B69:I69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
